--- a/MAO/Jodyrock_vedios_cat.xlsx
+++ b/MAO/Jodyrock_vedios_cat.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="19095" windowHeight="8445"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Xamarin Android Tutorial 6 Creating a Login System</t>
   </si>
@@ -328,17 +328,20 @@
   </si>
   <si>
     <t>ListView</t>
+  </si>
+  <si>
+    <t>Topic #</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -347,7 +350,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,19 +358,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,7 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,52 +460,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,6 +510,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -582,6 +598,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -616,6 +633,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -791,21 +809,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="68.875" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -815,19 +834,25 @@
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
+      <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -835,11 +860,14 @@
       <c r="B3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -847,9 +875,10 @@
       <c r="B4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="C4" s="10"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -857,9 +886,10 @@
       <c r="B5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+      <c r="C5" s="10"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -867,9 +897,10 @@
       <c r="B6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="11"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -877,11 +908,14 @@
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -889,9 +923,10 @@
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -899,9 +934,10 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="10"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -909,9 +945,10 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="11"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -919,11 +956,14 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -931,9 +971,10 @@
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="10"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -941,9 +982,10 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="15">
+      <c r="C13" s="11"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -951,11 +993,14 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -963,11 +1008,14 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -975,9 +1023,10 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="10"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -985,31 +1034,36 @@
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="11"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C19" s="13"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1017,11 +1071,14 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D20" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1029,9 +1086,10 @@
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C21" s="10"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1039,19 +1097,21 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="C22" s="10"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="11"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1059,11 +1119,14 @@
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1071,9 +1134,10 @@
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" ht="15">
+      <c r="C25" s="11"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1081,11 +1145,14 @@
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15">
+      <c r="D26" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1093,11 +1160,14 @@
       <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15">
+      <c r="D27" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1105,11 +1175,14 @@
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1117,11 +1190,14 @@
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1129,9 +1205,10 @@
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C30" s="14"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1139,11 +1216,14 @@
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D31" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1151,9 +1231,10 @@
       <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C32" s="13"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.25" customHeight="1">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1161,9 +1242,10 @@
       <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="13"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1171,9 +1253,10 @@
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" ht="15">
+      <c r="C34" s="13"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1181,11 +1264,14 @@
       <c r="B35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15">
+      <c r="D35" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1193,11 +1279,14 @@
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1205,11 +1294,14 @@
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1217,9 +1309,10 @@
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" s="14"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1227,9 +1320,10 @@
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:3" ht="15">
+      <c r="C39" s="14"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1237,11 +1331,14 @@
       <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1249,11 +1346,14 @@
       <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1261,9 +1361,10 @@
       <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" s="13"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1271,9 +1372,10 @@
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43" s="13"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1281,9 +1383,10 @@
       <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44" s="13"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1291,9 +1394,10 @@
       <c r="B45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="C45" s="13"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1301,11 +1405,14 @@
       <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1313,9 +1420,10 @@
       <c r="B47" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="13"/>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" s="16"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1323,9 +1431,10 @@
       <c r="B48" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="C48" s="16"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1333,11 +1442,14 @@
       <c r="B49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1345,9 +1457,10 @@
       <c r="B50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" ht="15">
+      <c r="C50" s="13"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1355,11 +1468,14 @@
       <c r="B51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15">
+      <c r="D51" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1367,11 +1483,14 @@
       <c r="B52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15">
+      <c r="D52" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1379,11 +1498,14 @@
       <c r="B53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15">
+      <c r="D53" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1391,11 +1513,14 @@
       <c r="B54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15">
+      <c r="D54" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1403,11 +1528,14 @@
       <c r="B55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1415,11 +1543,14 @@
       <c r="B56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1427,9 +1558,10 @@
       <c r="B57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="15"/>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="C57" s="10"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1437,9 +1569,10 @@
       <c r="B58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="15"/>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58" s="10"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1447,9 +1580,10 @@
       <c r="B59" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="15"/>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="C59" s="10"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1457,9 +1591,10 @@
       <c r="B60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="15"/>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="C60" s="10"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1467,9 +1602,10 @@
       <c r="B61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="15"/>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="C61" s="10"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1477,9 +1613,10 @@
       <c r="B62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="15"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="C62" s="10"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1487,9 +1624,10 @@
       <c r="B63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="16"/>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="C63" s="11"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1497,11 +1635,14 @@
       <c r="B64" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1509,9 +1650,10 @@
       <c r="B65" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="C65" s="13"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1519,11 +1661,14 @@
       <c r="B66" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1531,9 +1676,10 @@
       <c r="B67" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="17"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="C67" s="13"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A73" si="1">A67+1</f>
         <v>67</v>
@@ -1541,9 +1687,10 @@
       <c r="B68" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="17"/>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="C68" s="13"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -1551,9 +1698,10 @@
       <c r="B69" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="17"/>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="C69" s="13"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -1561,9 +1709,10 @@
       <c r="B70" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="17"/>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="C70" s="13"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1571,9 +1720,10 @@
       <c r="B71" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="17"/>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="C71" s="13"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -1581,9 +1731,10 @@
       <c r="B72" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="17"/>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="C72" s="13"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -1591,10 +1742,11 @@
       <c r="B73" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="17"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="32">
     <mergeCell ref="C66:C73"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C41:C45"/>
@@ -1611,6 +1763,22 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D56:D63"/>
+    <mergeCell ref="D64:D65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1618,24 +1786,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
